--- a/sprint_log.xlsx
+++ b/sprint_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oxmetonatechcloud-my.sharepoint.com/personal/yuwei_zhu_alloyed_com/Documents/Documents/Market-Prediction-Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E641979B-CB69-4FBE-B91B-EF96B2E6EEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{E641979B-CB69-4FBE-B91B-EF96B2E6EEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF253793-2B8A-46E2-876E-17D910BF3E7D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9DE9F9B3-8349-4823-92B8-15DAED41D133}"/>
+    <workbookView xWindow="10545" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{9DE9F9B3-8349-4823-92B8-15DAED41D133}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -44,10 +44,37 @@
     <t>Action</t>
   </si>
   <si>
-    <t>Time Alotted</t>
-  </si>
-  <si>
     <t>Implement Dyna-Q agent with SGD models, monitor the performance on the replay memory</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Implemented neural network world model since SGD can't deal with multi-output predictions, monitoring performance yet to be tested</t>
+  </si>
+  <si>
+    <t>Check how neural network world model performance changes over time, tune model size and demonstrate better performance using Dyna-Q</t>
+  </si>
+  <si>
+    <t>Create a gymnasium style stock market "game env" using AAPL stock and test performance of RL models</t>
+  </si>
+  <si>
+    <t>Create a dedicated back testing environment for all and any models</t>
+  </si>
+  <si>
+    <t>Time Alotted (nights)</t>
+  </si>
+  <si>
+    <t>Write unit tests for all progress up to now and clean code</t>
+  </si>
+  <si>
+    <t>Model is very accurate after several iterations</t>
+  </si>
+  <si>
+    <t>Keep track of entire history of states and actions. Sample from that instead of just sampling from history.</t>
+  </si>
+  <si>
+    <t>Test length of history</t>
   </si>
 </sst>
 </file>
@@ -63,15 +90,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -79,17 +118,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -114,6 +177,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -121,6 +198,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -128,6 +219,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -135,126 +233,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -269,6 +248,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -568,55 +551,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EEAB6C-EAF3-4AB1-84E2-BAE29272C0C4}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
     <col min="3" max="3" width="83.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
         <v>3</v>
       </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:B33">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="B2:B23">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B4 B8:B33">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B35">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThanOrEqual">
-      <formula>4</formula>
+  <conditionalFormatting sqref="B3:B4 B8:B34">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
+      <formula>2</formula>
+      <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B34">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
-      <formula>2</formula>
-      <formula>3</formula>
+  <conditionalFormatting sqref="B3:B4 B8:B35">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThanOrEqual">
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
